--- a/biology/Zoologie/Dik-dik_de_Swayne/Dik-dik_de_Swayne.xlsx
+++ b/biology/Zoologie/Dik-dik_de_Swayne/Dik-dik_de_Swayne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Madoqua saltiana swaynei
 Le Dik-dik de Swayne ( Madoqua saltiana spp. swaynei) est une sous-espèce du Dik-dik de Salt découverte par Thomas en 1894.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dik-dik de Swayne est le plus petit des Diks-diks. Il a une touffe frontale entre le roux et le gris.
 Sa face postérieure des oreilles et ses pattes sont roux clair. Il a les lignes médio-ventrales et l'intérieur de ses cuisses blancs. Il a seulement le haut du dos, les fesses, le cou et les joues gris.
@@ -544,7 +558,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur : 45 cm
 Queue : 3–5 cm
@@ -579,7 +595,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition du Dik-dik de Swayne s'étend de la Somalie à l'Ogaden.
 </t>
